--- a/src/main/resources/womenAmazonJeans.xlsx
+++ b/src/main/resources/womenAmazonJeans.xlsx
@@ -35,64 +35,73 @@
     <t>women_amazon_jeans_1</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/61A9Nt4XghL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Sweezarmo</t>
-  </si>
-  <si>
-    <t>Women's Denim Stretch Joggers Drawstring Elastic Waist Pull On Jeans with Side Pocket for Women</t>
-  </si>
-  <si>
-    <t>$42.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfYXRmOjMwMDE2MDkxMjE3MDIwMjo6MDo6&amp;url=%2FSweezarmo-Stretch-Joggers-Drawstring-Elastic%2Fdp%2FB0CN31L47B%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://m.media-amazon.com/images/I/61qJhgXrbKL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>SIDEFEEL</t>
+  </si>
+  <si>
+    <t>Women Distressed Raw Hem Washed Boyfriend Jeans Straight Leg Destroyed Denim Pants</t>
+  </si>
+  <si>
+    <t>$51.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfYXRmOjMwMDA4MTExMjUwOTYwMjo6MDo6&amp;url=%2FSIDEFEEL-Boyfriend-Distressed-Washed-Straight%2Fdp%2FB0BLBZ5T33%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>women_amazon_jeans_2</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/71wThsfYqAL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Hybrid &amp; Company</t>
-  </si>
-  <si>
-    <t>Womens Super Stretch Comfy Denim Skinny Jeans</t>
-  </si>
-  <si>
-    <t>$37.42</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfYXRmOjIwMDAyNzA4MDkwOTg5ODo6MDo6&amp;url=%2FHybrid-Company-Womens-Stretch-Pant-P31710SK-WINTER%2Fdp%2FB01E5ZA4A6%2Fref%3Dsr_1_2_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://m.media-amazon.com/images/I/615bBAfm-ZL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Men's Streetwear Jeans Y2K Hip Hop Jeans Casual High Waisted Wide Leg Baggy Embroidery Harajuku Denim Pants Hip Hop Trousers</t>
+  </si>
+  <si>
+    <t>$40.22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfYXRmOjMwMDE1MjU4NzM0MzUwMjo6MDo6&amp;url=%2FStreetwear-Embroidery-Harajuku-Trousers-Z10-Black%2Fdp%2FB0CTLQVW6Y%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>women_amazon_jeans_3</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/51rbQe2am1L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Super Stretch Comfort High Waist High Rise Skinny Jeans</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfYXRmOjIwMDAyNzA5ODU1MTM5ODo6MDo6&amp;url=%2FHybrid-Company-Stretch-Hi-Waist-BlackTwill%2Fdp%2FB01BVRPO6K%2Fref%3Dsr_1_3_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://m.media-amazon.com/images/I/61Oqtc0XA9L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Levi's</t>
+  </si>
+  <si>
+    <t>Mens 501 Original Fit Jeans</t>
+  </si>
+  <si>
+    <t>$79.95</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfYXRmOjIwMDA0NzIyNDUzOTM1MTo6MDo6&amp;url=%2FLevis-Original-Medium-Stonewash-32x32%2Fdp%2FB0018OQQBE%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>women_amazon_jeans_4</t>
   </si>
   <si>
-    <t>https://m.media-amazon.com/images/I/61C-I6Qc5PL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Women Butt Lift 3 Button High Wide Waist Stretch Denim Skinny Jeans</t>
-  </si>
-  <si>
-    <t>$50.07</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfYXRmOjIwMDAyODQ1OTcxOTk5ODo6MDo6&amp;url=%2FHybrid-Womens-Super-Stretch-P45075SKX%2Fdp%2FB01L0MQLVS%2Fref%3Dsr_1_4_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://m.media-amazon.com/images/I/61wjHTukxlL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>SUANQ</t>
+  </si>
+  <si>
+    <t>Stretchy Wide Leg Jeans - Pull-On Novelty Stretchy Women Jeans with High Elasticity - Women's Fashion for Party, Beach, Home, Working, Vacation, Dating Blue</t>
+  </si>
+  <si>
+    <t>$21.78</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfYXRmOjMwMDE0MTY0MjYzNTkwMjo6MDo6&amp;url=%2FSUANQ-Stretchy-Wide-Jeans-Pull%2Fdp%2FB0CJTCQV4B%2Fref%3Dsr_1_4_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>women_amazon_jeans_5</t>
@@ -107,10 +116,10 @@
     <t>Womens Modern Bootcut Jean</t>
   </si>
   <si>
-    <t>$41.67</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Signature-Levi-Strauss-Womens-Bootcut/dp/B081GCDR8N/ref=sr_1_5?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-5</t>
+    <t>$41.68</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Signature-Levi-Strauss-Womens-Bootcut/dp/B081GCDR8N/ref=sr_1_5?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-5</t>
   </si>
   <si>
     <t>women_amazon_jeans_6</t>
@@ -128,7 +137,7 @@
     <t>$49.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Lee-Womens-Comfort-Motion-Skinny/dp/B0C5N9DTM6/ref=sr_1_6?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-6</t>
+    <t>https://www.amazon.ca/Lee-Womens-Comfort-Motion-Skinny/dp/B0C5N9DTM6/ref=sr_1_6?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-6</t>
   </si>
   <si>
     <t>women_amazon_jeans_7</t>
@@ -143,55 +152,70 @@
     <t>$59.52</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Lee-Womens-Regular-Bootcut-Majestic/dp/B07B6LZ672/ref=sr_1_7?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-7</t>
+    <t>https://www.amazon.ca/Lee-Womens-Regular-Bootcut-Majestic/dp/B07B6LZ672/ref=sr_1_7?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-7</t>
   </si>
   <si>
     <t>women_amazon_jeans_8</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71QQP5WQ2-L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Amazon Essentials</t>
+  </si>
+  <si>
+    <t>Women's Standard New Skinny Jean</t>
+  </si>
+  <si>
+    <t>$38.70</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Amazon-Essentials-Womens-Standard-Skinny/dp/B07RL5Z2FF/ref=sr_1_8?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-8</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_9</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81HJYXeIrTL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens 505 Regular Fit JeansJeans</t>
+  </si>
+  <si>
+    <t>$68.30</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RIwdb5zKM1vZvN6Ip1jnLXgAAAGOpHm6ywEAAAH2AQBvbm9fdHhuX2JpZDYgICBvbm9fdHhuX2ltcDEgICAh6NZI/https://www.amazon.ca/Levis-Mens-Regular-Rinse-32x30/dp/B0018OHB4A/ref=sxin_16_sbv_search_btf?content-id=amzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9%3Aamzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;cv_ct_cx=Jeans&amp;dib=eyJ2IjoiMSJ9.vLhfcxvON4hr1t2xEJtXjQ.Ui83buPuEekGlj2GgYwQvsrQ7ag2TRd1MvzTSF2VUNg&amp;dib_tag=se&amp;keywords=Jeans&amp;pd_rd_i=B0018OHB4A&amp;pd_rd_r=55074253-5008-4cb9-8a87-3637b53e7e6d&amp;pd_rd_w=bEqAP&amp;pd_rd_wg=GLBR4&amp;pf_rd_p=6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;pf_rd_r=T1TFK3E3DVT41H5TAY1Q&amp;qid=1712156424&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_10</t>
+  </si>
+  <si>
+    <t>Womens Legendary High Rise Trouser Jeans</t>
+  </si>
+  <si>
+    <t>$47.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Legendary-Trouser-Elevated/dp/B0C5N9XPCF/ref=sr_1_9?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-9</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_11</t>
+  </si>
+  <si>
     <t>https://m.media-amazon.com/images/I/71BAbrz2CoL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Womens Legendary High Rise Trouser Jeans</t>
-  </si>
-  <si>
-    <t>$47.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-Legendary-Trouser-Elevated/dp/B0C5N9XPCF/ref=sr_1_8?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-8</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_9</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81HJYXeIrTL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Levi's</t>
-  </si>
-  <si>
-    <t>Mens 505 Regular Fit JeansJeans</t>
-  </si>
-  <si>
-    <t>$68.30</t>
-  </si>
-  <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RBoD0LbIjOOPTs3fy4Ytf1wAAAGOoVmTmAEAAAH2AQBvbm9fdHhuX2JpZDQgICBvbm9fdHhuX2ltcDEgICDT3nIg/https://www.amazon.ca/Levis-Mens-Regular-Rinse-32x30/dp/B0018OHB4A/ref=sxin_16_sbv_search_btf?content-id=amzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9%3Aamzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;crid=2X55WI4YYS8S6&amp;cv_ct_cx=Jeans&amp;dib=eyJ2IjoiMSJ9.vLhfcxvON4hr1t2xEJtXjQ.VaEh3En2wpsLD3xfA79P1DwrRD7lxtO5cKHEjl7N0FI&amp;dib_tag=se&amp;keywords=Jeans&amp;pd_rd_i=B0018OHB4A&amp;pd_rd_r=5fad236c-f95f-4741-8fd9-09d59cdc8f1c&amp;pd_rd_w=EOsMe&amp;pd_rd_wg=t1Ri3&amp;pf_rd_p=6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;pf_rd_r=6QS4AJHJ2BF0BTY0RPFE&amp;qid=1712103986&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_10</t>
-  </si>
-  <si>
     <t>Womens 725 High Rise Bootcut Jeans</t>
   </si>
   <si>
     <t>$99.95</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Levis-Womens-Bootcut-Jeans-Lapis/dp/B081YWZXWC/ref=sr_1_9?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-9</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_11</t>
+    <t>https://www.amazon.ca/Levis-Womens-Bootcut-Jeans-Lapis/dp/B081YWZXWC/ref=sr_1_10?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_12</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/519iDAn3VkL._AC_UL320_.jpg</t>
@@ -203,10 +227,10 @@
     <t>$50.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Lee-Womens-Comfort-Bootcut-Midnight/dp/B0CBW6W55H/ref=sr_1_10?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-10</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_12</t>
+    <t>https://www.amazon.ca/Lee-Womens-Comfort-Bootcut-Midnight/dp/B0CBW6W55H/ref=sr_1_11?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-11</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_13</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/612QpagqNWL._AC_UL320_.jpg</t>
@@ -218,10 +242,10 @@
     <t>$82.17</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Levis-Womens-New-Boyfriend-Jeans/dp/B08NV2RDXS/ref=sr_1_11?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-11</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_13</t>
+    <t>https://www.amazon.ca/Levis-Womens-New-Boyfriend-Jeans/dp/B08NV2RDXS/ref=sr_1_12?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-12</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_14</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/515naWqXOnS._AC_UL320_.jpg</t>
@@ -236,145 +260,688 @@
     <t>$37.52</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Nine-West-Womens-Perfect-Skinny/dp/B09GHN9Z1D/ref=sr_1_12?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-12</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_14</t>
+    <t>https://www.amazon.ca/Nine-West-Womens-Perfect-Skinny/dp/B09GHN9Z1D/ref=sr_1_13?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-13</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_15</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61uPr8InVIL._AC_UL320_.jpg</t>
   </si>
   <si>
+    <t>Womens Legendary Mid Rise Flare Jean</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Legendary-Flare-Strength/dp/B0C5NCYPG5/ref=sr_1_14?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-14</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_16</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51tjozEuQYL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens 314 Shaping Straight Jeans</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Shaping-Straight-Regular/dp/B0B194PMGT/ref=sr_1_15?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-15</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_17</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71fA0XpyZFL._AC_UL320_.jpg</t>
+  </si>
+  <si>
     <t>Gloria Vanderbilt</t>
   </si>
   <si>
     <t>Womens Amanda Classic High Rise Tapered JeansJeans</t>
   </si>
   <si>
-    <t>$29.60</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Gloria-Vanderbilt-Classic-Tapered-Scottsdale/dp/B01KO2HFYW/ref=sr_1_13?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-13</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_15</t>
+    <t>$33.90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Gloria-Vanderbilt-Classic-Tapered-Scottsdale/dp/B01KO2HFYW/ref=sr_1_16?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-16</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_18</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/810CIRfV1BL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Womens 314 Shaping Straight Jeans</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Shaping-Straight-Regular/dp/B0B194PMGT/ref=sr_1_14?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-14</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_16</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71fA0XpyZFL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Legendary Mid Rise Flare Jean</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-Legendary-Flare-Strength/dp/B0C5NCYPG5/ref=sr_1_15?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-15</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_17</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51tjozEuQYL._AC_UL320_.jpg</t>
+    <t>Womens Mid Rise Boyfriend JeanJeans</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Rise-Boyfriend-Laundered/dp/B0B293SXQW/ref=sr_1_17?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-17</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_19</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Fl7O2TY+L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens High-Rise Skinny JeanJeans</t>
+  </si>
+  <si>
+    <t>$35.59</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Amazon-Essentials-Standard-High-Rise-Regular/dp/B07QR73VCB/ref=sr_1_18?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-18</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_20</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61ByeqMh4pL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Slimming Fit Rebound Skinny Leg Jean</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Sculpting-Skinny-Nightingale/dp/B07B6GMLYX/ref=sr_1_19?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-19</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_21</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71mJwPoaWVL._AC_UL320_.jpg</t>
   </si>
   <si>
     <t>Womens Wedgie Straight Jeans</t>
   </si>
   <si>
-    <t>$79.81</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Wedgie-Straight-Jeans/dp/B08NV1JCH9/ref=sr_1_16?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-16</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_18</t>
+    <t>$79.85</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Wedgie-Straight-Jeans/dp/B08NV1JCH9/ref=sr_1_20?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-20</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_22</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/51BJSvS7RnS._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Womens Mid Rise Boyfriend JeanJeans</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-Rise-Boyfriend-Laundered/dp/B0B292T14T/ref=sr_1_17?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-17</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_19</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71Fl7O2TY+L._AC_UL320_.jpg</t>
+    <t>Flamingals</t>
+  </si>
+  <si>
+    <t>Jeans for Women Stretch Casual High Waisted Skinny Flap Pocket Shaping Jeans</t>
+  </si>
+  <si>
+    <t>$74.57</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfbXRmOjMwMDExMDU0MjY3NTIwMjo6MDo6&amp;url=%2FFlamingals-Stretch-Skinny-Pocket-Shaping%2Fdp%2FB09YPV78L6%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_23</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51KuzEwKU2L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Astylish</t>
+  </si>
+  <si>
+    <t>Womens Plaid Patch Ripped Jean Mid Waisted Boyfriend Trendy Stretch Printed Skinny Distressed Denim Pants with Hole</t>
+  </si>
+  <si>
+    <t>$57.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfbXRmOjMwMDAwMjQ0NDE2NzQwMjo6MDo6&amp;url=%2FAstylish-Womens-Boyfriend-Distressed-Stretch%2Fdp%2FB09YH9NNXN%2Fref%3Dsr_1_22_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_24</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71ooZD9hdOL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Farmacell</t>
+  </si>
+  <si>
+    <t>133 Women's high-Waisted Anti-Cellulite micromassage Leggings</t>
+  </si>
+  <si>
+    <t>$74.95</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfbXRmOjIwMDE0MzY3MzM3MzE5ODo6MDo6&amp;url=%2FFarmacell-high-Waisted-Anti-Cellulite-micromassage-Leggings%2Fdp%2FB09FQ9HY7Y%2Fref%3Dsr_1_23_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_25</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61EKqaFsSfL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Maacie</t>
+  </si>
+  <si>
+    <t>Casual Jeans for Pregnant Women Secret Fit Stretch Jeans for Daily Wear Dark Denim</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfbXRmOjIwMDA2Njk5OTgxNzU5ODo6MDo6&amp;url=%2FMaacie-Women-Pregnancy-Denim-Skinny%2Fdp%2FB0B1MPYV1Y%2Fref%3Dsr_1_24_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_26</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71h1OKz9xgL._AC_UL320_.jpg</t>
   </si>
   <si>
     <t>Womens Classic Fit Monroe Straight-Leg Jean</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Lee-Womens-Classic-Straight-Leg-Inspire/dp/B07C2HCYYM/ref=sr_1_18?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-18</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_20</t>
+    <t>https://www.amazon.ca/Lee-Womens-Classic-Straight-Leg-Inspire/dp/B07C2HCYYM/ref=sr_1_25?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-25</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_27</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/81+1vsgtNWL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Amazon Essentials</t>
-  </si>
-  <si>
-    <t>Womens High-Rise Skinny JeanJeans</t>
-  </si>
-  <si>
-    <t>$35.59</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Standard-High-Rise-Regular/dp/B07QR73VCB/ref=sr_1_19?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-19</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_21</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61ByeqMh4pL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>Womens 311 Shaping Skinny JeansJeans</t>
   </si>
   <si>
     <t>$79.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Levis-Womens-Shaping-Skinny-Regular/dp/B07KMK3KJ3/ref=sr_1_20?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-20</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_22</t>
+    <t>https://www.amazon.ca/Levis-Womens-Shaping-Skinny-Regular/dp/B07KMK3KJ3/ref=sr_1_26?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-26</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_28</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/515mbjhBbMS._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Prolific Health</t>
-  </si>
-  <si>
-    <t>Jeggings</t>
-  </si>
-  <si>
-    <t>$49.98</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfbXRmOjMwMDE0NDYyOTkxMjkwMjo6MDo6&amp;url=%2FProlific-Health-Jeggings-Slimming-Chocolate%2Fdp%2FB0CVYXJFXR%2Fref%3Dsr_1_21_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_23</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/710xb8DDWPL._AC_UL320_.jpg</t>
+    <t>Womens 711 Skinny Jeans</t>
+  </si>
+  <si>
+    <t>$58.32</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Skinny-Astro-Indigo/dp/B078C7R8MV/ref=sr_1_27?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-27</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_29</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/516vv-0xv9L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Women High Waisted Wide Leg Baggy Jeans 90s Boyfriend Harem Cropped Pants Denim Y2k Jeans Ankle Mom Jeans</t>
+  </si>
+  <si>
+    <t>$56.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Astylish-Waisted-Boyfriend-Cropped-Pockets/dp/B0BQMHPCCC/ref=sr_1_28?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-28</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_30</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Py92dPL3L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Wrangler</t>
+  </si>
+  <si>
+    <t>Womens Willow Performance Ultimate Riding Jeans</t>
+  </si>
+  <si>
+    <t>$65.47</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wrangler-Womens-Willow-Performance-Ultimate/dp/B0B2J6P69W/ref=sr_1_29?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-29</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_31</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/712h3fgzzJL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Classic Bootcut JeansJeans</t>
+  </si>
+  <si>
+    <t>$96.43</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Classic-Bootcut-Island/dp/B0727SLS14/ref=sr_1_30?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-30</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_32</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51BwnHSd0NL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Low Pro</t>
+  </si>
+  <si>
+    <t>$66.60</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Low-Jeans-Breathe/dp/B096HHYDRL/ref=sr_1_31?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-31</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_33</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/519tZqMuT8L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Slim Bootcut Jean</t>
+  </si>
+  <si>
+    <t>$43.90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Amazon-Essentials-Womens-Standard-Bootcut/dp/B07RMMDXZX/ref=sr_1_32?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-32</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_34</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81Hten6Gv9L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Relaxed Fit Straight Leg Jean</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Relaxed-Straight-Black/dp/B06Y4K4W3X/ref=sr_1_33?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-33</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_35</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51sKuoSSHnL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Women's Retro Mae Mid Rise Stretch Boot Cut Jean</t>
+  </si>
+  <si>
+    <t>$97.12</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wrangler-Womens-Retro-Rise-Stretch/dp/B06XV1YF9C/ref=sr_1_34?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-34</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_36</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81XDuFaoWNL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Premium 501 Skinny Ankle JeansJeans</t>
+  </si>
+  <si>
+    <t>$82.98</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Stretch-Skinny-Jeans/dp/B07SJH4HM3/ref=sr_1_35?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-35</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_37</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/610lOVLm1UL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Women's 721 High Rise Skinny Jeans (Standard and Plus)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Premium-Skinny-Jeans/dp/B08FBQ6JXR/ref=sr_1_36?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-36</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_38</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51qHAQkwZ2L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens 94 Baggy</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Baggy-Stonewash-Regular/dp/B09N5PGDR1/ref=sr_1_37?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-37</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_39</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/715ji8WVrzL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Women's Pull-On Jegging</t>
+  </si>
+  <si>
+    <t>$36.21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Amazon-Essentials-Standard-Jegging-Regular/dp/B07RGTQS9F/ref=sr_1_38?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-38</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_40</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/815C+WHOQhL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Amanda Classic Hr Tapered JeanJeans</t>
+  </si>
+  <si>
+    <t>$66.16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Gloria-Vanderbilt-Womens-Classic-Tapered/dp/B0BTSG4N43/ref=sr_1_39?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-39</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_41</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61ET+5qFi6L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Premium Wedgie Icon Fit Jeans</t>
+  </si>
+  <si>
+    <t>$58.97</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Wedgie-Jeans-Dreams/dp/B07H5LLBJX/ref=sr_1_40?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-40</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_42</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71kb+JNQ5KL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>NYDJ</t>
+  </si>
+  <si>
+    <t>Women's Marilyn Straight Denim Jeans</t>
+  </si>
+  <si>
+    <t>$108.18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/NYDJ-Womens-Marilyn-Straight-Cooper/dp/B06XL1BVV3/ref=sr_1_41?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-41</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_43</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51HlRHmtfXL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Shape Effect Po Hr FlareJeans</t>
+  </si>
+  <si>
+    <t>$46.51</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Gloria-Vanderbilt-Womens-Effect-Asheboro/dp/B0CKZWQ6H4/ref=sr_1_42?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-42</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_44</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71-KHNvmb2L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens New Slim Straight-fit JeanJeans</t>
+  </si>
+  <si>
+    <t>$43.32</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Amazon-Essentials-Standard-Straight-Fit-Regular/dp/B07RL5Y1SN/ref=sr_1_43?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-43</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_45</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81MlLGz9SFL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Women's Relaxed Fit Straight Leg Jean</t>
+  </si>
+  <si>
+    <t>$48.47</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Relaxed-Straight-Authentic/dp/B00VBOVD3C/ref=sr_1_44?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-44</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_46</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61RQnnSc0DL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Silver Jeans Co.</t>
+  </si>
+  <si>
+    <t>Womens Boyfriend Mid Rise Slim Leg Jeans</t>
+  </si>
+  <si>
+    <t>$89.09</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Silver-Jeans-Co-Womens-Boyfriend/dp/B07QWYF45R/ref=sr_1_45?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-45</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_47</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81nYh1jao0L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Low Pro Jeans</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Jeans-Charlie-Regular/dp/B08NV1TZSM/ref=sr_1_46?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-46</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_48</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61UiP3gN4kL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Women's Modern Series Curvy-Fit Adrian Bootcut Jean</t>
+  </si>
+  <si>
+    <t>$58.37</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Modern-Bootcut-Majestic/dp/B01EOX2HT0/ref=sr_1_47?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-47</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_49</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81UkJtZLMvL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Women’s Plus Size Flex Motion Regular Fit Straight Leg Jean</t>
+  </si>
+  <si>
+    <t>$53.33</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Plus-Size-Regular-Straight/dp/B07B6NBNZQ/ref=sr_1_48?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-48</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_50</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71RW7+Qd19L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens High Rise Mom JeansJeans</t>
+  </si>
+  <si>
+    <t>$66.76</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-High-Rise-Black/dp/B0CPLZ2VN2/ref=sr_1_49?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-49</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_51</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/611v7FBokIL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Western Mid Rise Stretch Boot Cut Jean</t>
+  </si>
+  <si>
+    <t>$68.17</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wrangler-Womens-Willow-Ultimate-Lovette/dp/B07MCPC5DM/ref=sr_1_50?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-50</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_52</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71js4fA1KVL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Relaxed-fit Side Elastic Tapered-Leg Jean</t>
+  </si>
+  <si>
+    <t>$57.65</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Lee-Womens-Relaxed-Elastic-Tapered/dp/B000KB3178/ref=sr_1_51?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-51</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_53</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61IlF0FxuQL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Amanda Classic Tapered JeansJeans</t>
+  </si>
+  <si>
+    <t>$56.06</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Gloria-Vanderbilt-Classic-Tapered-Vintage/dp/B00XK0VNBC/ref=sr_1_52?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-52</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_54</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/718jYrlOs4L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens 20x No. 42 Vintage Boot Cut Jean</t>
+  </si>
+  <si>
+    <t>$94.35</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wrangler-Xtreme-Cowboy-Vintage-Light/dp/B009AGA9S8/ref=sr_1_53?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-53</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_55</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71-RPapUWzL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Tapered High-Rise Mom Jean</t>
+  </si>
+  <si>
+    <t>$81.86</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wrangler-Womens-Tapered-High-Rise-Topaz/dp/B0BMQS9YFS/ref=sr_1_54?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-54</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_56</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91ql063WZWL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Womens Ribcage Straight Ankle Jeans</t>
+  </si>
+  <si>
+    <t>$98.26</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Levis-Womens-Ribcage-Straight-Regular/dp/B09N5M5CG1/ref=sr_1_55?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-55</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_57</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/716bHGRLT7L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Women's Suki Medium Wash Destructed Mid Rise Straight Leg Jean</t>
+  </si>
+  <si>
+    <t>$62.95</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Silver-Jeans-Co-Womens-Straight/dp/B0BYZXZ1KF/ref=sr_1_56?dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712156424&amp;s=fashion&amp;sr=1-56</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_58</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81TyfVKqJIL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>iJewelry2</t>
+  </si>
+  <si>
+    <t>Skull Double Jeans Pants Wallet Safety Pin Leather and Stainless Steel Chains</t>
+  </si>
+  <si>
+    <t>$27.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfYnRmOjIwMDE0NTI4NzMxMDI5ODo6MDo6&amp;url=%2FDouble-Wallet-Safety-Leather-Stainless%2Fdp%2FB006ITRJ5Q%2Fref%3Dsr_1_57_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_59</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61tr66xYDCL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>FYHSM</t>
+  </si>
+  <si>
+    <t>Women Skinny Leather Belt Solid Color Alloy Turn Lock Adjustable Fashion Belts Thin Waist Belt For Dress Jeans Coat</t>
+  </si>
+  <si>
+    <t>$52.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfYnRmOjMwMDE2MDcxMjk5MzYwMjo6MDo6&amp;url=%2FFYHSM-Women-Skinny-Leather-Belt%2Fdp%2FB0CD77GKXM%2Fref%3Dsr_1_58_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>women_amazon_jeans_60</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41C+Q+24RQL._AC_UL320_.jpg</t>
   </si>
   <si>
     <t>Resfeber</t>
@@ -383,577 +950,10 @@
     <t>Women's Ripped Flare Jeans Distressed Bootcut Jeans Stretch Bell Bottom Jeans with Holes</t>
   </si>
   <si>
-    <t>$52.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfbXRmOjIwMDA4MTM1NzE5MzU5ODo6MDo6&amp;url=%2FResfeber-Boyfriend-Distressed-Stretch-2124-light%2Fdp%2FB08SW145RZ%2Fref%3Dsr_1_22_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_24</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71DeJoEz5HS._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Camii Mia</t>
-  </si>
-  <si>
-    <t>Fleece-Lined-Jeans-Women-Winter Jeans Warm Pants Thermal Denim Jeggings Stretch Slim Fit Mid Rise</t>
-  </si>
-  <si>
-    <t>$55.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfbXRmOjIwMDEzNzk4ODA4OTQ5ODo6MDo6&amp;url=%2FCamii-Mia-Thermal-Stretch-Jeggings%2Fdp%2FB0BPMG8X9Y%2Fref%3Dsr_1_23_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_25</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81bF+REXm6L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Dragon Fit</t>
-  </si>
-  <si>
-    <t>Women's Capris Leggings High Waisted Casual Workout Running Yoga Pants with Pockets</t>
-  </si>
-  <si>
-    <t>$29.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfbXRmOjIwMDA2MDc1NTM3ODQ5ODo6MDo6&amp;url=%2FDragon-Fit-Leggings-Waisted-Workout%2Fdp%2FB09YTVXMH3%2Fref%3Dsr_1_24_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_26</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51yFYIWSiML._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Astylish</t>
-  </si>
-  <si>
-    <t>Women High Waisted Wide Leg Baggy Jeans 90s Boyfriend Harem Cropped Pants Denim Y2k Jeans Ankle Mom Jeans</t>
-  </si>
-  <si>
-    <t>$56.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Astylish-Waisted-Boyfriend-Cropped-Pockets/dp/B0BQMHPCCC/ref=sr_1_25?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-25</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_27</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61Py92dPL3L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens 711 Skinny Jeans</t>
-  </si>
-  <si>
-    <t>$58.33</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Skinny-Astro-Indigo/dp/B078C7R8MV/ref=sr_1_26?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-26</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_28</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/516vv-0xv9L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Relaxed Fit Straight Leg Jean</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-Relaxed-Straight-Black/dp/B06Y4K4W3X/ref=sr_1_27?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-27</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_29</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51sKuoSSHnL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Wrangler</t>
-  </si>
-  <si>
-    <t>Womens Willow Performance Ultimate Riding Jeans</t>
-  </si>
-  <si>
-    <t>$65.35</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Wrangler-Womens-Willow-Performance-Ultimate/dp/B0B2J6P69W/ref=sr_1_28?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-28</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_30</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/712h3fgzzJL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Slim Bootcut Jean</t>
-  </si>
-  <si>
-    <t>$43.90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Womens-Standard-Bootcut/dp/B07RMMDXZX/ref=sr_1_29?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-29</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_31</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81Hten6Gv9L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Classic Bootcut JeansJeans</t>
-  </si>
-  <si>
-    <t>$96.43</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Classic-Bootcut-Island/dp/B0727SLS14/ref=sr_1_30?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-30</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_32</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51BwnHSd0NL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Low Pro</t>
-  </si>
-  <si>
-    <t>$66.41</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Low-Jeans-Breathe/dp/B096HHYDRL/ref=sr_1_31?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-31</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_33</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/519tZqMuT8L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Women's Retro Mae Mid Rise Stretch Boot Cut Jean</t>
-  </si>
-  <si>
-    <t>$97.12</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Wrangler-Womens-Retro-Rise-Stretch/dp/B06XV1YF9C/ref=sr_1_32?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-32</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_34</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81XDuFaoWNL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Amanda Classic Hr Tapered JeanJeans</t>
-  </si>
-  <si>
-    <t>$66.16</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Gloria-Vanderbilt-Womens-Classic-Tapered/dp/B0BTSG4N43/ref=sr_1_33?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-33</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_35</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61ET+5qFi6L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Slimming Fit Rebound Skinny Leg Jean</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-Sculpting-Skinny-Nightingale/dp/B07B6GMLYX/ref=sr_1_34?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-34</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_36</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71mJwPoaWVL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Women's Standard New Skinny Jean</t>
-  </si>
-  <si>
-    <t>$38.70</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Womens-Standard-Skinny/dp/B07RL5Z2FF/ref=sr_1_35?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-35</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_37</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71QQP5WQ2-L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens 94 Baggy</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Baggy-Stonewash-Regular/dp/B09N5PGDR1/ref=sr_1_36?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-36</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_38</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/715ji8WVrzL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Women's 721 High Rise Skinny Jeans (Standard and Plus)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Premium-Skinny-Jeans/dp/B08FBQ6JXR/ref=sr_1_37?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-37</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_39</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51qHAQkwZ2L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Premium 501 Skinny Ankle JeansJeans</t>
-  </si>
-  <si>
-    <t>$82.98</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Stretch-Skinny-Jeans/dp/B07SJH4HM3/ref=sr_1_38?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-38</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_40</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/610lOVLm1UL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Women's Relaxed Fit Straight Leg Jean</t>
-  </si>
-  <si>
-    <t>$48.47</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-Relaxed-Straight-Authentic/dp/B00VBOVD3C/ref=sr_1_39?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-39</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_41</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61RQnnSc0DL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Low Pro Jeans</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Jeans-Charlie-Regular/dp/B08NV1TZSM/ref=sr_1_40?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-40</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_42</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61UiP3gN4kL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>NYDJ</t>
-  </si>
-  <si>
-    <t>Women's Marilyn Straight Denim Jeans</t>
-  </si>
-  <si>
-    <t>$108.18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/NYDJ-Womens-Marilyn-Straight-Cooper/dp/B06XL1BVV3/ref=sr_1_41?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-41</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_43</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51HlRHmtfXL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens New Slim Straight-fit JeanJeans</t>
-  </si>
-  <si>
-    <t>$43.32</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Standard-Straight-Fit-Regular/dp/B07RL5Y1SN/ref=sr_1_42?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-42</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_44</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81MlLGz9SFL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Amanda Classic Tapered JeansJeans</t>
-  </si>
-  <si>
-    <t>$43.60</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Gloria-Vanderbilt-Classic-Tapered-Vintage/dp/B00XK0VNBC/ref=sr_1_43?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-43</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_45</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/718jYrlOs4L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Shape Effect Po Hr FlareJeans</t>
-  </si>
-  <si>
-    <t>$46.51</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Gloria-Vanderbilt-Womens-Effect-Asheboro/dp/B0CKZWQ6H4/ref=sr_1_44?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-44</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_46</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71-KHNvmb2L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Women's Pull-On Jegging</t>
-  </si>
-  <si>
-    <t>$36.21</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Standard-Jegging-Regular/dp/B07RGTQS9F/ref=sr_1_45?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-45</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_47</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/815C+WHOQhL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens 720 High Rise Super Skinny JeansJeans</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Super-Skinny-Forest/dp/B078C8W1LX/ref=sr_1_46?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-46</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_48</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61ee3vpskCL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Premium Wedgie Icon Fit Jeans</t>
-  </si>
-  <si>
-    <t>$46.69</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Wedgie-Jeans-Dreams/dp/B07H5LWP41/ref=sr_1_47?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-47</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_49</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71kb+JNQ5KL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens High Rise Mom JeansJeans</t>
-  </si>
-  <si>
-    <t>$49.66</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-High-Rise-Black/dp/B0CPLZ2VN2/ref=sr_1_48?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-48</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_50</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/611v7FBokIL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mens Dungarees Straight Leg Carpenter Jean</t>
-  </si>
-  <si>
-    <t>$89.75</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Dungarees-Carpenter-Retro-Stone/dp/B0008EOWY8/ref=sr_1_49?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-49</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_51</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81PxkMq6k9L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens 726 High Rise Flare Jeans</t>
-  </si>
-  <si>
-    <t>$78.42</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Levis-Womens-Flare-Jeans-Black/dp/B09N6263Q6/ref=sr_1_50?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-50</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_52</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61z3zIBWVnL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Silver Jeans Co.</t>
-  </si>
-  <si>
-    <t>Womens Suki Mid Rise Slim Bootcut Jeans</t>
-  </si>
-  <si>
-    <t>$53.38</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Silver-Jeans-Co-Bootcut-Vintage/dp/B07DFBFWC5/ref=sr_1_51?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-51</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_53</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81cU72BFmvL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Women’s Plus Size Flex Motion Regular Fit Straight Leg Jean</t>
-  </si>
-  <si>
-    <t>$58.08</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-Plus-Size-Regular-Straight/dp/B07B6NBNZQ/ref=sr_1_52?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-52</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_54</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71RW7+Qd19L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens Sculpting Fit Slim Leg Pull on Jeans</t>
-  </si>
-  <si>
-    <t>$76.31</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lee-Womens-Sculpting-Slim-Infinity/dp/B07C13C5N8/ref=sr_1_53?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-53</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_55</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/710H4XHzAWL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Womens High Rise Bold Boot Jean</t>
-  </si>
-  <si>
-    <t>$54.18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Wrangler-Womens-High-Rise-Stockton/dp/B092JMJZFR/ref=sr_1_54?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-54</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_56</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/512krNTy8OS._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Democracy</t>
-  </si>
-  <si>
-    <t>Women’s Ab Solution Jegging</t>
-  </si>
-  <si>
-    <t>$94.35</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Democracy-Womens-Solution-Jegging-Dark/dp/B071NY12S8/ref=sr_1_55?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-55</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_57</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81m9jBFnVyL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mens 20x No. 42 Vintage Boot Cut Jean</t>
-  </si>
-  <si>
-    <t>$28.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Wrangler-Xtreme-Cowboy-Vintage-Light/dp/B009AGA9S8/ref=sr_1_56?crid=2X55WI4YYS8S6&amp;dib=eyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw&amp;dib_tag=se&amp;keywords=Jeans&amp;qid=1712103986&amp;s=fashion&amp;sprefix=%2Cfashion-womens%2C62&amp;sr=1-56</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_58</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71-RPapUWzL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>AISEW</t>
-  </si>
-  <si>
-    <t>Womens Long Sleeve V Neck T-Shirt Striped Sheer Mesh Raglan Tees Loose Casual Tops</t>
-  </si>
-  <si>
-    <t>$74.95</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfYnRmOjIwMDA5OTI0OTU2NDkzMTo6MDo6&amp;url=%2FAISEW-Womens-T-Shirt-Striped-1165Pink%2Fdp%2FB09CPMYTR2%2Fref%3Dsr_1_57_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_59</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71-5LY-NlKL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Farmacell</t>
-  </si>
-  <si>
-    <t>133 Women's high-Waisted Anti-Cellulite micromassage Leggings</t>
-  </si>
-  <si>
-    <t>$32.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfYnRmOjIwMDE0MzY3MzM3MzE5ODo6MDo6&amp;url=%2FFarmacell-high-Waisted-Anti-Cellulite-micromassage-Leggings%2Fdp%2FB09FQ9HY7Y%2Fref%3Dsr_1_58_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>women_amazon_jeans_60</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61EKqaFsSfL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>isermeo</t>
-  </si>
-  <si>
-    <t>Summer Tank Tops for Women Loose Fit Pleated Square Neck Sleeveless Shirt Flowy Tops S-XXL</t>
-  </si>
-  <si>
-    <t>$67.95</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MToyMDkyNTY0ODE5ODQ4MDkzOjE3MTIxMDM5ODY6c3BfYnRmOjIwMDE0NTkxNDUzMjE5ODo6MDo6&amp;url=%2Fisermeo-Sleeveless-Summer-Pleated-Workout%2Fdp%2FB0BYY6D6CZ%2Fref%3Dsr_1_59_sspa%3Fcrid%3D2X55WI4YYS8S6%26dib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54SCsBGAp8M5p1KJRq5ZHg-C30DBSEdIip63IryxM1Od0T_RsgZ7dEfaZkJsRF-rnLFkcmVffG0P7PK04tgUIDNqnoZKidTpDFDPEpYezL3rxKww8ySqnJ3LhRWh0kz0ULsald9E3XzA61UHA1JJNa5F4d2fugA01xqKdXpp80plE8poE-jj0X67Di0pNEqK5UL1e_cKQ6G-W0cG_3aZraAaQUuxI84TL_o_5tL6T1FgxCETJiBn4BBkxjPmrDMsTwI.MfwKR5Gbqq_Is5irv6mHzsSgbMWTkZJzM7pOkFNOULw%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712103986%26s%3Dfashion%26sprefix%3D%252Cfashion-womens%252C62%26sr%3D1-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>$33.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo3NjQ2OTkxMjcxMTQ5MDkzOjE3MTIxNTY0MjQ6c3BfYnRmOjIwMDA4MTM1NzE5MzU5ODo6MDo6&amp;url=%2FResfeber-Boyfriend-Distressed-Stretch-2124-light%2Fdp%2FB08SW145RZ%2Fref%3Dsr_1_59_sspa%3Fdib%3DeyJ2IjoiMSJ9.DWZQt1tE4wisDJKxOxadOHWhBooLaQ3oo9Gio2aC54RnJ9vM2Okrmri2BoyZZQoJjxPhYAiXME3sBhuOmDyEFutGRO_G6JpR4joxro-oW2vsZFPOExJ4lB1NdqtSd9l9v__H5n_WZVyHgPNOSAHqwZJ3irPs35dtEjzEdZtGiTeuHUnOnPz6VHCvG5vxZWyyWiLfQQ8xhqq4cC7DXATjfzDfRVacZF_xZVFNPdGYYNoilFt7PrBIpIjZqkpHskyWvlu2Jf2zygi0zdVtYtDooGlehCeiPVq-2KW2BDU0M60.kgaN0elLlPZGr3FQ5nWN7qGAJsZXINrGQS-rV0qAECY%26dib_tag%3Dse%26keywords%3DJeans%26qid%3D1712156424%26s%3Dfashion%26sr%3D1-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
   </si>
 </sst>
 </file>
@@ -1072,513 +1072,513 @@
         <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>140</v>
       </c>
       <c r="E27" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>141</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="C28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="E28" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="F28" t="s" s="0">
         <v>146</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="C29" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s" s="0">
+      <c r="E29" t="s" s="0">
         <v>150</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>42</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>151</v>
@@ -1592,27 +1592,27 @@
         <v>153</v>
       </c>
       <c r="C30" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
         <v>159</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>160</v>
@@ -1632,7 +1632,7 @@
         <v>164</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>165</v>
@@ -1652,7 +1652,7 @@
         <v>169</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>170</v>
@@ -1672,7 +1672,7 @@
         <v>174</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>175</v>
@@ -1692,33 +1692,33 @@
         <v>179</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>180</v>
       </c>
       <c r="E35" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s" s="0">
         <v>181</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>182</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="C36" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="E36" t="s" s="0">
         <v>185</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>42</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>186</v>
@@ -1732,7 +1732,7 @@
         <v>188</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s" s="0">
         <v>189</v>
@@ -1752,13 +1752,13 @@
         <v>193</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>194</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>195</v>
@@ -1772,13 +1772,13 @@
         <v>197</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>198</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s" s="0">
         <v>199</v>
@@ -1792,7 +1792,7 @@
         <v>201</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>202</v>
@@ -1812,7 +1812,7 @@
         <v>206</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>207</v>
@@ -1832,307 +1832,307 @@
         <v>211</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>212</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s" s="0">
         <v>288</v>
@@ -2152,7 +2152,7 @@
         <v>292</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s" s="0">
         <v>293</v>
